--- a/血肿1a_100人拟合函数选择结果.xlsx
+++ b/血肿1a_100人拟合函数选择结果.xlsx
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>二次函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-41.42817043  82.56899975  79.80294565]</t>
+          <t>[-15.02701765  -9.42166638  70.16941467  80.62267321]</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>三角函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[ 0.47393396  7.0464249  28.17494937]</t>
+          <t>[ 1.00964093e-02  6.28640454e-02 -2.98049367e+00  3.53590774e+01]</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>二次函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[ 0.0061423  -0.45150195  5.08880192]</t>
+          <t>[ 2.94460116e-04  1.77407802e-03 -4.47660980e-01  5.08864944e+00]</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>指数函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[-8.86643353  0.97688257 42.2038229 ]</t>
+          <t>[-0.28516466 -0.13611501  5.34682543 34.08516396]</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>二次函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[108.79505071 -66.35106253  60.00509373]</t>
+          <t>[143.01633871   9.65526397 -51.96063119  59.74702931]</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>三角函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[-13.88794519 -15.38110127  24.19450142]</t>
+          <t>[-0.01039673 -0.05403344  0.32375972  7.95597862]</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>二次函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[ 1.65735950e-02 -2.24184926e+00  7.42563816e+01]</t>
+          <t>[ 1.04072287e-03 -1.08995376e-02 -2.11136264e+00  7.42509923e+01]</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>二次函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[-0.69979375  4.37788223 43.01380316]</t>
+          <t>[-0.07067106 -0.16775026  3.6710886  43.04233432]</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>三角函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[ 6.96858143  6.54086397 59.0564659 ]</t>
+          <t>[-0.62147586 -1.46796304  4.26832784 66.37934106]</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>指数函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[27.40334766  1.85129388  0.81109002]</t>
+          <t>[-2.21305890e-03  1.64638845e-01 -3.64217013e+00  2.36628021e+01]</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>二次函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[ 0.08261951 -0.52877903 27.50783485]</t>
+          <t>[ 1.07634423e-02  1.09293762e-02 -4.49650461e-01  2.74965883e+01]</t>
         </is>
       </c>
     </row>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>指数函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[34.55936038 11.74486589 -0.89753339]</t>
+          <t>[-5.43083132e-05  1.77796511e-02 -1.53864827e+00  3.07426642e+01]</t>
         </is>
       </c>
     </row>
@@ -1516,12 +1516,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>三角函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[ 0.9744929  -0.46058324 13.20687113]</t>
+          <t>[-9.08137523e-03 -4.86387279e-02  1.10432839e+00  1.27373157e+01]</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>二次函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[ 0.07358566 -0.73581523  2.63110102]</t>
+          <t>[ 0.005131    0.02301095 -0.6697556   2.61948728]</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>三角函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[ 1.60275556  2.81474931 20.2704135 ]</t>
+          <t>[ 2.81600150e-02 -1.45966293e-02 -1.39259456e+00  2.40737448e+01]</t>
         </is>
       </c>
     </row>
@@ -1756,12 +1756,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>三角函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[-1.90427969 -3.45287095 13.84114363]</t>
+          <t>[-0.01495248  0.03433302  1.5455076   9.26415954]</t>
         </is>
       </c>
     </row>
@@ -1846,12 +1846,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>指数函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[39.71634648  5.03078008  0.60875435]</t>
+          <t>[-1.82191412e-03  3.65395262e-01 -6.87751932e+00  3.99325539e+01]</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>三角函数回归</t>
+          <t>三次函数回归</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[16.19352981 16.21977642 -1.89459743]</t>
+          <t>[-0.01864763 -0.10617374  1.25907485 14.63281552]</t>
         </is>
       </c>
     </row>

--- a/血肿1a_100人拟合函数选择结果.xlsx
+++ b/血肿1a_100人拟合函数选择结果.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[ 2.70055415e-03 -1.80496874e-01  7.72640221e-01  7.20434945e+01]</t>
+          <t>[ 1.95352586e-07 -3.13362629e-04  3.21933426e-02  7.20434945e+01]</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[ 2.91659336e-03 -1.58389526e-01 -2.03831149e-02  4.96399296e+01]</t>
+          <t>[ 2.10980423e-07 -2.74981816e-04 -8.49296455e-04  4.96399296e+01]</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-15.02701765  -9.42166638  70.16941467  80.62267321]</t>
+          <t>[-1.08702385e-03 -1.63570597e-02  2.92372561e+00  8.06226732e+01]</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[ 0.08127047 -0.31612826 -8.251568   45.84235829]</t>
+          <t>[ 5.87893997e-06 -5.48833792e-04 -3.43815334e-01  4.58423583e+01]</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.41014016 -0.48426368 12.02300427 12.35193442]</t>
+          <t>[-2.96687040e-05 -8.40735563e-04  5.00958511e-01  1.23519344e+01]</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-1.82746359e-01  4.61560098e+00 -4.56054923e+01  2.15900368e+02]</t>
+          <t>[-1.32194993e-05  8.01319614e-03 -1.90022885e+00  2.15900368e+02]</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[ 0.03702201 -0.99117657  4.65461417 25.03041688]</t>
+          <t>[ 2.67809665e-06 -1.72079265e-03  1.93942257e-01  2.50304169e+01]</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[ 0.50308976 -6.35384391 20.23770933 25.977357  ]</t>
+          <t>[ 3.63924885e-05 -1.10309790e-02  8.43237889e-01  2.59773570e+01]</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-1.03476771  0.28843192 11.74801932 41.01283219]</t>
+          <t>[-7.48529885e-05  5.00749853e-04  4.89500805e-01  4.10128322e+01]</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-3.49599944e-02  1.77697822e+00 -1.64492635e+01  3.77199819e+01]</t>
+          <t>[-2.52893478e-06  3.08503164e-03 -6.85385981e-01  3.77199819e+01]</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[-2.15794074e-03 -2.66291378e-02  4.62924205e-01  4.44075788e+00]</t>
+          <t>[-1.56101038e-07 -4.62311419e-05  1.92885086e-02  4.44075788e+00]</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[ 1.82038040e-03 -1.13295877e-01 -3.20532312e-01  6.42374618e+01]</t>
+          <t>[ 1.31682610e-07 -1.96694230e-04 -1.33555130e-02  6.42374618e+01]</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[ 2.08839702e-03 -9.08797637e-02  3.47913628e-01  1.36766194e+01]</t>
+          <t>[ 1.51070386e-07 -1.57777367e-04  1.44964012e-02  1.36766194e+01]</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[ 1.00964093e-02  6.28640454e-02 -2.98049367e+00  3.53590774e+01]</t>
+          <t>[ 7.30353679e-07  1.09138968e-04 -1.24187236e-01  3.53590774e+01]</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[ 2.24667739e-02 -8.80335100e-01  6.29136521e+00  3.20403048e+01]</t>
+          <t>[ 1.62520066e-06 -1.52835955e-03  2.62140217e-01  3.20403048e+01]</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[ 0.23484023  1.10592084 -0.51508502 51.04752489]</t>
+          <t>[ 1.69878639e-05  1.92000146e-03 -2.14618757e-02  5.10475249e+01]</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[ 0.12092475 -3.41828782 19.32236508 24.69747104]</t>
+          <t>[ 8.74744975e-06 -5.93452747e-03  8.05098545e-01  2.46974710e+01]</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[ 0.40556346 -4.9035286   8.86229014 13.94349356]</t>
+          <t>[ 2.93376348e-05 -8.51307048e-03  3.69262089e-01  1.39434936e+01]</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[-6.62671408e-04  9.43924287e-02 -4.56423013e+00  8.99166639e+01]</t>
+          <t>[-4.79362998e-08  1.63875744e-04 -1.90176256e-01  8.99166639e+01]</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[ 1.34588263e-05  1.99209964e-04 -1.25755867e-01  3.25828865e+00]</t>
+          <t>[ 9.73584078e-10  3.45850631e-07 -5.23982777e-03  3.25828865e+00]</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[ -0.12214392   2.32443661 -12.58638446  46.39240604]</t>
+          <t>[-8.83564242e-06  4.03548022e-03 -5.24432686e-01  4.63924060e+01]</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[ 2.94460116e-04  1.77407802e-03 -4.47660980e-01  5.08864944e+00]</t>
+          <t>[ 2.13006449e-08  3.07999657e-06 -1.86525408e-02  5.08864944e+00]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[ 8.14968896e-04 -4.51757016e-02 -8.68757263e-01  4.29426213e+01]</t>
+          <t>[ 5.89531898e-08 -7.84300375e-05 -3.61982193e-02  4.29426213e+01]</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[-1.47515035e-02  5.15790821e-01 -5.65706501e+00  2.28543018e+01]</t>
+          <t>[-1.06709372e-06  8.95470175e-04 -2.35711042e-01  2.28543018e+01]</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[-0.28516466 -0.13611501  5.34682543 34.08516396]</t>
+          <t>[-2.06282307e-05 -2.36310787e-04  2.22784393e-01  3.40851640e+01]</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[ 2.04876725e-02 -5.76268265e-01  2.34913278e+00  3.29901185e+01]</t>
+          <t>[ 1.48203649e-06 -1.00046574e-03  9.78805323e-02  3.29901185e+01]</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[ 0.06458702 -1.3371602   6.86379473 30.20179264]</t>
+          <t>[ 4.67209348e-06 -2.32145867e-03  2.85991447e-01  3.02017926e+01]</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[ 2.35329198e-04  1.29898682e-02 -2.27827099e+00  4.54514478e+01]</t>
+          <t>[ 1.70232348e-08  2.25518546e-05 -9.49279579e-02  4.54514478e+01]</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[ 1.09516646e-03 -2.25310171e-02 -2.31882889e+00  5.12634058e+01]</t>
+          <t>[ 7.92221111e-08 -3.91163492e-05 -9.66178703e-02  5.12634058e+01]</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[-2.37060010e-05 -4.52065733e-02 -4.82804263e-01  4.25377894e+01]</t>
+          <t>[-1.71484382e-09 -7.84836342e-05 -2.01168443e-02  4.25377894e+01]</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[143.01633871   9.65526397 -51.96063119  59.74702931]</t>
+          <t>[ 1.03455106e-02  1.67626111e-02 -2.16502630e+00  5.97470293e+01]</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[-0.01039673 -0.05403344  0.32375972  7.95597862]</t>
+          <t>[-7.52078481e-07 -9.38080609e-05  1.34899882e-02  7.95597862e+00]</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[ 5.40480616e-03 -2.80232362e-01  2.94554182e+00  7.72332394e+00]</t>
+          <t>[ 3.90972668e-07 -4.86514517e-04  1.22730909e-01  7.72332394e+00]</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[-0.21066814  3.21565212 -0.97669916 38.46795412]</t>
+          <t>[-1.52393040e-05  5.58272938e-03 -4.06957982e-02  3.84679541e+01]</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[ 1.82536755e-03 -1.36000757e-02 -2.74428329e+00  4.89446154e+01]</t>
+          <t>[ 1.32043370e-07 -2.36112425e-05 -1.14345137e-01  4.89446154e+01]</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[  0.51772115 -14.02655261  93.71067475  -5.37205546]</t>
+          <t>[ 3.74508933e-05 -2.43516538e-02  3.90461145e+00 -5.37205546e+00]</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[ 2.61664432e-03 -1.48191412e-01  5.25243121e-01  4.18102878e+01]</t>
+          <t>[ 1.89282720e-07 -2.57276757e-04  2.18851301e-02  4.18102878e+01]</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[ 1.12623221e-02 -4.13833392e-01  3.06425040e+00  1.81360215e+01]</t>
+          <t>[ 8.14693438e-07 -7.18460750e-04  1.27677100e-01  1.81360215e+01]</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[ 2.81902168e-03 -1.25959588e-01 -5.30520778e-01  4.05951093e+01]</t>
+          <t>[ 2.03922286e-07 -2.18679840e-04 -2.21050324e-02  4.05951093e+01]</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[ 3.45440543e-03 -8.80351299e-02 -1.22410420e+00  2.84783071e+01]</t>
+          <t>[ 2.49884652e-07 -1.52838767e-04 -5.10043417e-02  2.84783071e+01]</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[-0.03276544  0.90155751 -3.88297718 23.94322788]</t>
+          <t>[-2.37018525e-06  1.56520401e-03 -1.61790716e-01  2.39432279e+01]</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[-2.63772235e-03  1.45728907e-01 -2.61755057e+00  2.11161187e+01]</t>
+          <t>[-1.90807462e-07  2.53001575e-04 -1.09064607e-01  2.11161187e+01]</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[  1.37076836 -14.02972069  24.49510333  44.80497911]</t>
+          <t>[ 9.91585907e-05 -2.43571540e-02  1.02062931e+00  4.48049791e+01]</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[ 3.26903428e-04 -4.92909340e-02 -5.10558309e-01  4.29739426e+01]</t>
+          <t>[ 2.36475281e-08 -8.55745382e-05 -2.12732629e-02  4.29739426e+01]</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[ 2.70229906e-03 -8.17196371e-02 -9.20010339e-02  1.39892327e+01]</t>
+          <t>[ 1.95478810e-07 -1.41874370e-04 -3.83337641e-03  1.39892327e+01]</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[ 1.04072287e-03 -1.08995376e-02 -2.11136264e+00  7.42509923e+01]</t>
+          <t>[ 7.52837728e-08 -1.89228083e-05 -8.79734435e-02  7.42509923e+01]</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[ 1.55460684e-02 -6.95698459e-01  2.57390425e+00  1.91303302e+01]</t>
+          <t>[ 1.12457092e-06 -1.20780982e-03  1.07246010e-01  1.91303302e+01]</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[  1.01541007 -13.29890552  32.40091742  35.8859767 ]</t>
+          <t>[ 7.34526962e-05 -2.30883776e-02  1.35003823e+00  3.58859767e+01]</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[-0.06726442  1.08186499 -5.10805633 15.53139879]</t>
+          <t>[-4.86577100e-06  1.87823783e-03 -2.12835680e-01  1.55313988e+01]</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[-8.05797130e-04 -1.57015462e-02 -4.59276426e-01  9.32930708e+00]</t>
+          <t>[-5.82897229e-08 -2.72596288e-05 -1.91365177e-02  9.32930708e+00]</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[ 4.99832630e-04 -4.37632950e-03 -2.14812644e+00  5.33180972e+01]</t>
+          <t>[ 3.61568742e-08 -7.59779426e-06 -8.95052683e-02  5.33180972e+01]</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[-2.25287001e-05  8.70607141e-03 -1.03944097e+00  3.75906497e+01]</t>
+          <t>[-1.62968027e-09  1.51147073e-05 -4.33100403e-02  3.75906497e+01]</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[ 2.84903667e-03 -9.70266214e-02 -5.24657492e-01  2.21883936e+01]</t>
+          <t>[ 2.06093509e-07 -1.68448996e-04 -2.18607288e-02  2.21883936e+01]</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[ 0.1845299  -4.52293056 22.33579794 40.89718071]</t>
+          <t>[ 1.33485168e-05 -7.85231000e-03  9.30658247e-01  4.08971807e+01]</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[-0.07067106 -0.16775026  3.6710886  43.04233432]</t>
+          <t>[-5.11220061e-06 -2.91233096e-04  1.52962025e-01  4.30423343e+01]</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[-6.30626740e-03  3.50234525e-01 -6.20443619e+00  3.46650386e+01]</t>
+          <t>[-4.56182537e-07  6.08046051e-04 -2.58518175e-01  3.46650386e+01]</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[-0.09097865 -1.0174916  25.91949466 25.92811577]</t>
+          <t>[-6.58121012e-06 -1.76647847e-03  1.07997894e+00  2.59281158e+01]</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[-0.62147586 -1.46796304  4.26832784 66.37934106]</t>
+          <t>[-4.49562977e-05 -2.54854694e-03  1.77846993e-01  6.63793411e+01]</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[ 1.48985270e-02  6.71928078e-02 -3.20305021e+00  2.70243427e+01]</t>
+          <t>[ 1.07772910e-06  1.16654180e-04 -1.33460425e-01  2.70243427e+01]</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[ 2.97858794e-02 -1.07441376e+00  8.32426295e+00  4.78253339e+01]</t>
+          <t>[ 2.15464984e-06 -1.86530166e-03  3.46844290e-01  4.78253339e+01]</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[ 1.75323545e-02 -6.47863773e-01  5.00706450e+00  4.68173746e+01]</t>
+          <t>[ 1.26825481e-06 -1.12476349e-03  2.08627688e-01  4.68173746e+01]</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[  0.08819961   0.44808116 -10.06712905  21.8012176 ]</t>
+          <t>[ 6.38018010e-06  7.77918674e-04 -4.19463710e-01  2.18012176e+01]</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[ 7.17304500e-03 -4.18376552e-01  4.88185134e+00  1.20201835e+01]</t>
+          <t>[ 5.18883463e-07 -7.26348180e-04  2.03410473e-01  1.20201835e+01]</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[-2.21305890e-03  1.64638845e-01 -3.64217013e+00  2.36628021e+01]</t>
+          <t>[-1.60088172e-07  2.85831328e-04 -1.51757089e-01  2.36628021e+01]</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[ 1.64224346e-02 -5.26190443e-01  1.30045007e+00  8.06092738e+01]</t>
+          <t>[ 1.18796546e-06 -9.13525074e-04  5.41854196e-02  8.06092738e+01]</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[-3.09072868e-02  3.57857362e-01 -4.61316188e+00  6.01353522e+01]</t>
+          <t>[-2.23577017e-06  6.21280142e-04 -1.92215078e-01  6.01353522e+01]</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[ 1.07634423e-02  1.09293762e-02 -4.49650461e-01  2.74965883e+01]</t>
+          <t>[ 7.78605492e-07  1.89746114e-05 -1.87354359e-02  2.74965883e+01]</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[-5.43083132e-05  1.77796511e-02 -1.53864827e+00  3.07426642e+01]</t>
+          <t>[-3.92855275e-09  3.08674499e-05 -6.41103445e-02  3.07426642e+01]</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[-2.48928812e-02  1.07592448e+00 -1.58913514e+01  1.04809293e+02]</t>
+          <t>[-1.80070032e-06  1.86792444e-03 -6.62139643e-01  1.04809293e+02]</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[-0.04876325 -0.53337528 14.31715968  6.64878427]</t>
+          <t>[-3.52743411e-06 -9.25998743e-04  5.96548320e-01  6.64878427e+00]</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[ 1.51688772e-02 -7.36932451e-01  4.84494025e+00  3.71973125e+01]</t>
+          <t>[ 1.09728568e-06 -1.27939662e-03  2.01872510e-01  3.71973125e+01]</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[-9.08137523e-03 -4.86387279e-02  1.10432839e+00  1.27373157e+01]</t>
+          <t>[-6.56928185e-07 -8.44422360e-05  4.60136830e-02  1.27373157e+01]</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[ 0.02866033  0.05791269 -3.0012991  18.3416895 ]</t>
+          <t>[ 2.07322975e-06  1.00542869e-04 -1.25054129e-01  1.83416895e+01]</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[ 8.29181650e-03 -3.17051411e-01  1.15149769e+00  3.65455214e+01]</t>
+          <t>[ 5.99813115e-07 -5.50436477e-04  4.79790705e-02  3.65455214e+01]</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[ 3.72113208e-03 -1.77423585e-01  8.82310025e-01  1.72065025e+01]</t>
+          <t>[ 2.69179115e-07 -3.08027057e-04  3.67629177e-02  1.72065025e+01]</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[ 0.02900556 -0.82481607  4.8262774  19.16166968]</t>
+          <t>[ 2.09820307e-06 -1.43197235e-03  2.01094892e-01  1.91616697e+01]</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[ 8.15370556e-02 -2.68358755e+00  1.15627604e+01  1.00846272e+02]</t>
+          <t>[ 5.89822451e-06 -4.65900616e-03  4.81781681e-01  1.00846272e+02]</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[ 0.005131    0.02301095 -0.6697556   2.61948728]</t>
+          <t>[ 3.71165899e-07  3.99495647e-05 -2.79064831e-02  2.61948728e+00]</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[ 4.19343474e-03 -2.46333241e-01  1.96827738e+00  8.34038712e+00]</t>
+          <t>[ 3.03344527e-07 -4.27661877e-04  8.20115574e-02  8.34038712e+00]</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[-0.07043151 -0.65229585 13.02030914 64.20339388]</t>
+          <t>[-5.09487200e-06 -1.13245807e-03  5.42512881e-01  6.42033939e+01]</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[ 2.75144762e-03 -5.12404103e-01  4.29822066e+00  4.60834329e+01]</t>
+          <t>[ 1.99034116e-07 -8.89590457e-04  1.79092528e-01  4.60834329e+01]</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[ 2.22988066e-02  8.51385774e-02 -4.72495386e+00  4.65167237e+01]</t>
+          <t>[ 1.61305025e-06  1.47810030e-04 -1.96873077e-01  4.65167237e+01]</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[ 2.81600150e-02 -1.45966293e-02 -1.39259456e+00  2.40737448e+01]</t>
+          <t>[ 2.03703812e-06 -2.53413703e-05 -5.80247732e-02  2.40737448e+01]</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[-1.55952939e-02 -1.18459417e-01  1.02659295e-01  2.64027588e+01]</t>
+          <t>[-1.12813179e-06 -2.05658711e-04  4.27747064e-03  2.64027588e+01]</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[ 2.46519798e-02 -4.91937525e-01 -1.84263237e+00  7.28329434e+01]</t>
+          <t>[ 1.78327400e-06 -8.54058203e-04 -7.67763489e-02  7.28329434e+01]</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[-0.02279286  0.46076646 -2.66875644 11.3534396 ]</t>
+          <t>[-1.64878905e-06  7.99941771e-04 -1.11198185e-01  1.13534396e+01]</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[ 5.01332874e-04 -6.15773023e-02  1.81823714e-01  3.27863517e+01]</t>
+          <t>[ 3.62653989e-08 -1.06905039e-04  7.57598807e-03  3.27863517e+01]</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[-0.01495248  0.03433302  1.5455076   9.26415954]</t>
+          <t>[-1.08163159e-06  5.96059343e-05  6.43961498e-02  9.26415954e+00]</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[ 7.51526493e-03 -2.12758917e-01  2.06340739e-01  1.72809330e+01]</t>
+          <t>[ 5.43638956e-07 -3.69373120e-04  8.59753080e-03  1.72809330e+01]</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[-6.37817288e-03  5.16681552e-01 -1.07565899e+01  7.52457981e+01]</t>
+          <t>[-4.61384034e-07  8.97016584e-04 -4.48191246e-01  7.52457981e+01]</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[ 8.69948213e-03 -2.91985640e-01  1.77271051e+00  1.17119565e+01]</t>
+          <t>[ 6.29302816e-07 -5.06919513e-04  7.38629380e-02  1.17119565e+01]</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[  3.21314945 -40.87741892 140.51310674   4.50058594]</t>
+          <t>[ 2.32432686e-04 -7.09677412e-02  5.85471278e+00  4.50058594e+00]</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[ 8.73238102e-03 -3.27739013e-02 -1.58614407e+00  1.77395728e+01]</t>
+          <t>[ 6.31682655e-07 -5.68991342e-05 -6.60893362e-02  1.77395728e+01]</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[-1.82191412e-03  3.65395262e-01 -6.87751932e+00  3.99325539e+01]</t>
+          <t>[-1.31793556e-07  6.34366774e-04 -2.86563305e-01  3.99325539e+01]</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[ 1.98008874e-02 -7.30123793e-01  5.17794501e+00  2.57100322e+01]</t>
+          <t>[ 1.43235586e-06 -1.26757603e-03  2.15747709e-01  2.57100322e+01]</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[ 2.76597976e-03 -1.02158999e-01  4.96916088e-01  8.77338973e+00]</t>
+          <t>[ 2.00085342e-07 -1.77359373e-04  2.07048370e-02  8.77338973e+00]</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[-0.02090358 -0.08608516  1.58570979 10.60917218]</t>
+          <t>[-1.51212227e-06 -1.49453409e-04  6.60712414e-02  1.06091722e+01]</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[ 4.90889896e-03 -2.66269902e-01 -2.10425915e-01  1.99497583e+02]</t>
+          <t>[ 3.55099751e-07 -4.62274135e-04 -8.76774644e-03  1.99497583e+02]</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[-8.60194027 -1.44293845 40.92095865 32.23322675]</t>
+          <t>[-6.22246837e-04 -2.50510148e-03  1.70503994e+00  3.22332267e+01]</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[-0.01864763 -0.10617374  1.25907485 14.63281552]</t>
+          <t>[-1.34893165e-06 -1.84329402e-04  5.24614521e-02  1.46328155e+01]</t>
         </is>
       </c>
     </row>
